--- a/投资定期方案.xlsx
+++ b/投资定期方案.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>松哥</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -80,15 +80,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>定期倍投方案计划5期（本金120元）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>120元</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>200元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定期比例投注方案计划5期（本金120元）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分割线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.1.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改为比例投注每场15%比例倍投；当前本金200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30元（）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30元（）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30元（）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -180,19 +204,25 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -500,45 +530,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+    </row>
+    <row r="2" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -548,42 +577,69 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:25" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -593,21 +649,28 @@
       <c r="C7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:Z1"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:E8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/投资定期方案.xlsx
+++ b/投资定期方案.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>松哥</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -56,10 +56,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>负70元</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>40元（3阿森纳）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -76,10 +72,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>正60</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>120元</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -101,6 +93,22 @@
   </si>
   <si>
     <t>修改为比例投注每场15%比例倍投；当前本金200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8元（巴萨）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 70元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.1.6</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -204,7 +212,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -219,11 +227,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -533,14 +542,14 @@
   <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -577,13 +586,16 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:25" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -593,14 +605,14 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -611,12 +623,12 @@
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="G4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -624,46 +636,55 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" t="s">
-        <v>24</v>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="B7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>60</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7">
+        <v>-8</v>
+      </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/投资定期方案.xlsx
+++ b/投资定期方案.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>松哥</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -112,15 +112,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>60元（拉科鲁尼亚）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40元（西汉姆）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>212元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.1.7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>30元（）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>30元（）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30元（）</t>
+    <t>80元（）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -212,7 +224,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -223,6 +235,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -232,7 +245,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -542,39 +557,39 @@
   <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
     </row>
     <row r="2" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -586,15 +601,18 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="7"/>
       <c r="G2" t="s">
         <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -607,12 +625,15 @@
       <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="8" t="s">
         <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -625,13 +646,14 @@
       <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="G4" t="s">
-        <v>25</v>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="G4" s="8"/>
+      <c r="H4" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -641,33 +663,39 @@
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G5" t="s">
-        <v>26</v>
+      <c r="G5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C7">
         <v>60</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
       <c r="F7">
         <v>-8</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.15">
@@ -680,18 +708,22 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
       <c r="F8" t="s">
         <v>22</v>
       </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:Y1"/>
     <mergeCell ref="D2:D8"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:E8"/>
+    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/投资定期方案.xlsx
+++ b/投资定期方案.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>松哥</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -128,11 +128,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>30元（）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>80元（）</t>
+    <t>80元（埃弗顿）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30元（塞维利亚）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30元（干刚）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.1.9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>里昂（80）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10元（中国）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.1.11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>150（提现100元）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -140,7 +164,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,8 +196,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,8 +222,13 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -214,8 +251,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -223,8 +271,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -236,6 +287,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -248,11 +302,19 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="检查单元格" xfId="1" builtinId="23"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -557,39 +619,39 @@
   <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
     </row>
     <row r="2" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -601,18 +663,24 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="8"/>
       <c r="G2" t="s">
         <v>23</v>
       </c>
       <c r="H2" t="s">
         <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -625,15 +693,18 @@
       <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
-        <v>28</v>
+      <c r="H3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -646,12 +717,13 @@
       <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="G4" s="8"/>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:25" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -663,21 +735,24 @@
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H5" t="s">
-        <v>29</v>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
@@ -689,8 +764,8 @@
       <c r="C7">
         <v>60</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
       <c r="F7">
         <v>-8</v>
       </c>
@@ -708,22 +783,27 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
         <v>26</v>
       </c>
+      <c r="H8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:Y1"/>
     <mergeCell ref="D2:D8"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:E8"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H8:I8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
